--- a/Excel/MonsterPillConfig.xlsx
+++ b/Excel/MonsterPillConfig.xlsx
@@ -1137,7 +1137,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1312,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="L6" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
@@ -1349,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:12">
@@ -1386,7 +1386,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
@@ -1423,7 +1423,7 @@
         <v>60</v>
       </c>
       <c r="L9" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
@@ -1460,7 +1460,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:12">
@@ -1497,7 +1497,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:12">
@@ -1534,7 +1534,7 @@
         <v>90</v>
       </c>
       <c r="L12" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:12">
@@ -1571,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="L13" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:12">
@@ -1608,7 +1608,7 @@
         <v>110</v>
       </c>
       <c r="L14" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:12">
@@ -1645,7 +1645,7 @@
         <v>120</v>
       </c>
       <c r="L15" s="8">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="4:4">

--- a/Excel/MonsterPillConfig.xlsx
+++ b/Excel/MonsterPillConfig.xlsx
@@ -30,11 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>MapName</t>
+  </si>
+  <si>
+    <t>MonsterName</t>
+  </si>
+  <si>
     <t>Attr</t>
   </si>
   <si>
@@ -71,6 +77,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>幻境一层</t>
+  </si>
+  <si>
+    <t>幻境魔物</t>
+  </si>
+  <si>
     <t>1000000000000000</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
     <t>900000000000000000000000</t>
   </si>
   <si>
+    <t>幻境二层</t>
+  </si>
+  <si>
     <t>100000000000000000</t>
   </si>
   <si>
@@ -89,6 +104,9 @@
     <t>9000000000000000000000000000</t>
   </si>
   <si>
+    <t>幻境三层</t>
+  </si>
+  <si>
     <t>10000000000000000000</t>
   </si>
   <si>
@@ -98,6 +116,9 @@
     <t>90000000000000000000000000000000</t>
   </si>
   <si>
+    <t>幻境四层</t>
+  </si>
+  <si>
     <t>1000000000000000000000</t>
   </si>
   <si>
@@ -107,6 +128,9 @@
     <t>900000000000000000000000000000000000</t>
   </si>
   <si>
+    <t>幻境五层</t>
+  </si>
+  <si>
     <t>100000000000000000000000</t>
   </si>
   <si>
@@ -116,6 +140,9 @@
     <t>9000000000000000000000000000000000000000</t>
   </si>
   <si>
+    <t>幻境六层</t>
+  </si>
+  <si>
     <t>10000000000000000000000000</t>
   </si>
   <si>
@@ -125,6 +152,9 @@
     <t>90000000000000000000000000000000000000000000</t>
   </si>
   <si>
+    <t>幻境七层</t>
+  </si>
+  <si>
     <t>1000000000000000000000000000</t>
   </si>
   <si>
@@ -134,6 +164,9 @@
     <t>900000000000000000000000000000000000000000000000</t>
   </si>
   <si>
+    <t>幻境八层</t>
+  </si>
+  <si>
     <t>100000000000000000000000000000</t>
   </si>
   <si>
@@ -143,6 +176,9 @@
     <t>9000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
+    <t>幻境九层</t>
+  </si>
+  <si>
     <t>10000000000000000000000000000000</t>
   </si>
   <si>
@@ -150,6 +186,9 @@
   </si>
   <si>
     <t>90000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>幻境十层</t>
   </si>
   <si>
     <t>1000000000000000000000000000000000</t>
@@ -1132,74 +1171,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35" style="3" customWidth="1"/>
-    <col min="6" max="6" width="53.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="12.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35" style="3" customWidth="1"/>
+    <col min="8" max="8" width="53.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="12.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -1214,26 +1254,32 @@
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1248,457 +1294,529 @@
       <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="M4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:12">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:14">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="8">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8">
         <v>500</v>
       </c>
-      <c r="H6" s="8">
+      <c r="J6" s="8">
         <v>500</v>
       </c>
-      <c r="I6" s="8">
+      <c r="K6" s="8">
         <v>1500</v>
       </c>
-      <c r="J6" s="8">
+      <c r="L6" s="8">
         <v>20</v>
       </c>
-      <c r="K6" s="8">
+      <c r="M6" s="8">
         <v>30</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:12">
+    <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" ref="G7:G15" si="0">G6+200</f>
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I15" si="0">I6+200</f>
         <v>700</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" ref="H7:H15" si="1">H6+200</f>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J15" si="1">J6+200</f>
         <v>700</v>
       </c>
-      <c r="I7" s="8">
-        <f t="shared" ref="I7:I15" si="2">I6+200</f>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7:K15" si="2">K6+200</f>
         <v>1700</v>
       </c>
-      <c r="J7" s="8">
-        <f t="shared" ref="J7:J15" si="3">J6+2</f>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L15" si="3">L6+2</f>
         <v>22</v>
       </c>
-      <c r="K7" s="8">
-        <f t="shared" ref="K7:K15" si="4">K6+10</f>
+      <c r="M7" s="8">
+        <f t="shared" ref="M7:M15" si="4">M6+10</f>
         <v>40</v>
       </c>
-      <c r="L7" s="8">
+      <c r="N7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:12">
+    <row r="8" customHeight="1" spans="3:14">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H8" s="8">
+      <c r="J8" s="8">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I8" s="8">
+      <c r="K8" s="8">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
-      <c r="J8" s="8">
+      <c r="L8" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K8" s="8">
+      <c r="M8" s="8">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="L8" s="8">
+      <c r="N8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:12">
+    <row r="9" customHeight="1" spans="3:14">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="8">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="H9" s="8">
+      <c r="J9" s="8">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="I9" s="8">
+      <c r="K9" s="8">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="J9" s="8">
+      <c r="L9" s="8">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="K9" s="8">
+      <c r="M9" s="8">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="L9" s="8">
+      <c r="N9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:12">
+    <row r="10" customHeight="1" spans="3:14">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="8">
+        <v>33</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="H10" s="8">
+      <c r="J10" s="8">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="I10" s="8">
+      <c r="K10" s="8">
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="J10" s="8">
+      <c r="L10" s="8">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K10" s="8">
+      <c r="M10" s="8">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="L10" s="8">
+      <c r="N10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:12">
+    <row r="11" customHeight="1" spans="3:14">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="8">
+        <v>37</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H11" s="8">
+      <c r="J11" s="8">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="I11" s="8">
+      <c r="K11" s="8">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J11" s="8">
+      <c r="L11" s="8">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K11" s="8">
+      <c r="M11" s="8">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="L11" s="8">
+      <c r="N11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:12">
+    <row r="12" customHeight="1" spans="3:14">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="8">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="H12" s="8">
+      <c r="J12" s="8">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="I12" s="8">
+      <c r="K12" s="8">
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-      <c r="J12" s="8">
+      <c r="L12" s="8">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="K12" s="8">
+      <c r="M12" s="8">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="L12" s="8">
+      <c r="N12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:12">
+    <row r="13" customHeight="1" spans="3:14">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>35</v>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="8">
+        <v>45</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="H13" s="8">
+      <c r="J13" s="8">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="I13" s="8">
+      <c r="K13" s="8">
         <f t="shared" si="2"/>
         <v>2900</v>
       </c>
-      <c r="J13" s="8">
+      <c r="L13" s="8">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="K13" s="8">
+      <c r="M13" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="L13" s="8">
+      <c r="N13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:12">
+    <row r="14" customHeight="1" spans="3:14">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>38</v>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="8">
+        <v>49</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="H14" s="8">
+      <c r="J14" s="8">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="I14" s="8">
+      <c r="K14" s="8">
         <f t="shared" si="2"/>
         <v>3100</v>
       </c>
-      <c r="J14" s="8">
+      <c r="L14" s="8">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="K14" s="8">
+      <c r="M14" s="8">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="L14" s="8">
+      <c r="N14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:12">
+    <row r="15" customHeight="1" spans="3:14">
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>41</v>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="8">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H15" s="8">
+      <c r="J15" s="8">
         <f t="shared" si="1"/>
         <v>2300</v>
       </c>
-      <c r="I15" s="8">
+      <c r="K15" s="8">
         <f t="shared" si="2"/>
         <v>3300</v>
       </c>
-      <c r="J15" s="8">
+      <c r="L15" s="8">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="K15" s="8">
+      <c r="M15" s="8">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="L15" s="8">
+      <c r="N15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="4:4">
-      <c r="D16" s="7"/>
-    </row>
-    <row r="18" customHeight="1" spans="4:4">
-      <c r="D18" s="7"/>
-    </row>
-    <row r="20" customHeight="1" spans="4:4">
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" customHeight="1" spans="4:4">
-      <c r="D21" s="7"/>
-    </row>
-    <row r="23" customHeight="1" spans="4:4">
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" customHeight="1" spans="4:4">
-      <c r="D24" s="7"/>
-    </row>
-    <row r="27" customHeight="1" spans="5:5">
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" customHeight="1" spans="5:5">
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" customHeight="1" spans="5:5">
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" customHeight="1" spans="5:5">
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" customHeight="1" spans="5:5">
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" customHeight="1" spans="5:5">
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" customHeight="1" spans="5:5">
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" customHeight="1" spans="5:5">
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" customHeight="1" spans="5:5">
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" customHeight="1" spans="5:5">
-      <c r="E36" s="7"/>
+    <row r="16" customHeight="1" spans="6:6">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="18" customHeight="1" spans="6:6">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="6:6">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="6:6">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="6:6">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="6:6">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="7:7">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" customHeight="1" spans="7:7">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="7:7">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" customHeight="1" spans="7:7">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" customHeight="1" spans="7:7">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" customHeight="1" spans="7:7">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" customHeight="1" spans="7:7">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" customHeight="1" spans="7:7">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" customHeight="1" spans="7:7">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" customHeight="1" spans="7:7">
+      <c r="G36" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 J3 K3 D4 E4 F4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 C3:C4 G3:G4 H3:H4 I3:I4 L3:L4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 L3 M3 D4 E4 F4 G4 H4 L4 M4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 C3:C4 I3:I4 J3:J4 K3:K4 N3:N4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterPillConfig.xlsx
+++ b/Excel/MonsterPillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1173,10 +1173,10 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1415,8 +1415,8 @@
         <v>22</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" ref="M7:M15" si="4">M6+10</f>
-        <v>40</v>
+        <f t="shared" ref="M7:M12" si="4">M6+5</f>
+        <v>35</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M8" s="8">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M9" s="8">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N9" s="8">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M10" s="8">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N11" s="8">
         <v>0</v>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N12" s="8">
         <v>0</v>
@@ -1673,8 +1673,8 @@
         <v>34</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f>M12+10</f>
+        <v>70</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -1716,8 +1716,8 @@
         <v>36</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f>M13+10</f>
+        <v>80</v>
       </c>
       <c r="N14" s="8">
         <v>0</v>
@@ -1759,8 +1759,8 @@
         <v>38</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f>M14+10</f>
+        <v>90</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
@@ -1816,7 +1816,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 L3 M3 D4 E4 F4 G4 H4 L4 M4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 C3:C4 I3:I4 J3:J4 K3:K4 N3:N4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:H3 L3:M3 C3:C5 N3:N5 D4:H5 I3:K5 L4:M5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
